--- a/source_data/CDISC Pilot Study.xlsx
+++ b/source_data/CDISC Pilot Study.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwl/Documents/GitHub/d4k/usdm_data/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08F70A7-A6DA-2D43-B0CA-66EB1D4E09BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A3D1FB-0FE8-E84C-A42F-01F1735708C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="500" windowWidth="27560" windowHeight="18080" firstSheet="2" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38760" yWindow="500" windowWidth="41580" windowHeight="23440" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId4"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId5"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId6"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId7"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId8"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId9"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId10"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId11"/>
-    <sheet name="configuration" sheetId="10" r:id="rId12"/>
+    <sheet name="studyDesignArms" sheetId="14" r:id="rId4"/>
+    <sheet name="studyDesignEpochs" sheetId="15" r:id="rId5"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
+    <sheet name="studyDesignII" sheetId="6" r:id="rId7"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId8"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId9"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId10"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId11"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId12"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId13"/>
+    <sheet name="configuration" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="316">
   <si>
     <t>Epoch</t>
   </si>
@@ -236,9 +238,6 @@
   </si>
   <si>
     <t>END1</t>
-  </si>
-  <si>
-    <t>INT1</t>
   </si>
   <si>
     <t>endpointXref</t>
@@ -556,9 +555,6 @@
   </si>
   <si>
     <t>Xanomeline Low Dose</t>
-  </si>
-  <si>
-    <t>Follow-up</t>
   </si>
   <si>
     <t>Placebo</t>
@@ -885,15 +881,6 @@
     <t>Treatment 3</t>
   </si>
   <si>
-    <t>Alzheimer\'s disease</t>
-  </si>
-  <si>
-    <t>ICD-10-CM G30.9=Alzheimer\'s disease, unspecified</t>
-  </si>
-  <si>
-    <t>SNOMED:26929004=Alzheimer\'s disease</t>
-  </si>
-  <si>
     <t>Alzheimer\'s Disease Assessment Scale - Cognitive Subscale, total of 11 items
 [ADAS-Cog (11)] at Week 24</t>
   </si>
@@ -952,6 +939,84 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>studyArmName</t>
+  </si>
+  <si>
+    <t>studyArmDescription</t>
+  </si>
+  <si>
+    <t>studyArmType</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginDescription</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginType</t>
+  </si>
+  <si>
+    <t>Active Substance</t>
+  </si>
+  <si>
+    <t>Active Comparator Arm</t>
+  </si>
+  <si>
+    <t>Data collected from subjects</t>
+  </si>
+  <si>
+    <t>Data Generated Within Study</t>
+  </si>
+  <si>
+    <t>Placebo Comparator Arm</t>
+  </si>
+  <si>
+    <t>studyEpochName</t>
+  </si>
+  <si>
+    <t>studyEpochDescription</t>
+  </si>
+  <si>
+    <t>studyEpochType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screening </t>
+  </si>
+  <si>
+    <t>Screening Epoch</t>
+  </si>
+  <si>
+    <t>SCREENING</t>
+  </si>
+  <si>
+    <t>Treatment Epoch</t>
+  </si>
+  <si>
+    <t>Follow-Up</t>
+  </si>
+  <si>
+    <t>Follow-up Epoch</t>
+  </si>
+  <si>
+    <t>FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>procedureName</t>
+  </si>
+  <si>
+    <t>procedureDescription</t>
+  </si>
+  <si>
+    <t>Alzheimer's disease</t>
+  </si>
+  <si>
+    <t>IND2</t>
+  </si>
+  <si>
+    <t>SNOMED:26929004=Alzheimer's disease</t>
+  </si>
+  <si>
+    <t>ICD-10-CM: G30.9=Alzheimer's disease; unspecified</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1174,11 +1239,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1187,14 +1255,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1532,7 +1606,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1556,68 +1630,68 @@
         <v>28</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="1">
@@ -1628,7 +1702,7 @@
         <v>38718</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1638,10 +1712,131 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="61.83203125" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="24" style="27" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
   <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1658,323 +1853,323 @@
   <sheetData>
     <row r="1" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="35" t="s">
         <v>118</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="1"/>
@@ -2004,85 +2199,85 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
@@ -2096,7 +2291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2115,123 +2310,123 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>145</v>
-      </c>
       <c r="D1" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>249</v>
-      </c>
       <c r="D6" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="61" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="43" t="s">
         <v>252</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2240,7 +2435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2255,18 +2450,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2314,19 +2509,19 @@
         <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
         <v>161</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2343,7 +2538,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2356,115 +2551,115 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="B3" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+        <v>95</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+        <v>96</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -2475,96 +2670,96 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>169</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2573,11 +2768,187 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB09339-52DA-2A44-9E81-01CB7197E815}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740737DA-2EE9-3B48-882B-C915DB285C6C}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2605,49 +2976,49 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
       <c r="T1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="U1" s="50" t="s">
-        <v>169</v>
+        <v>272</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>2</v>
@@ -2709,10 +3080,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>21</v>
@@ -2901,126 +3272,126 @@
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G7" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="K7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="M7" s="39" t="s">
-        <v>134</v>
-      </c>
       <c r="N7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="P7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="R7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="T7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -3045,7 +3416,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -3177,7 +3548,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
@@ -3241,7 +3612,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -3303,7 +3674,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -3366,7 +3737,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -3555,7 +3926,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3618,7 +3989,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -3679,7 +4050,7 @@
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -3740,7 +4111,7 @@
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -3801,10 +4172,10 @@
     <row r="22" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
@@ -3864,7 +4235,7 @@
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -3925,7 +4296,7 @@
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -4047,7 +4418,7 @@
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
@@ -4108,10 +4479,10 @@
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
@@ -4291,12 +4662,12 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="238" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="52" t="s">
-        <v>289</v>
+      <c r="C30" s="46" t="s">
+        <v>284</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
@@ -4356,7 +4727,7 @@
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
@@ -4417,7 +4788,7 @@
     <row r="32" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="40" t="s">
@@ -4478,13 +4849,13 @@
     <row r="33" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>24</v>
@@ -4541,7 +4912,7 @@
     <row r="34" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -4602,7 +4973,7 @@
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -4665,7 +5036,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
@@ -4726,7 +5097,7 @@
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
@@ -4787,7 +5158,7 @@
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1" t="s">
@@ -4848,7 +5219,7 @@
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -4912,7 +5283,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>
@@ -5458,12 +5829,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5475,7 +5846,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>43</v>
@@ -5489,30 +5860,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5521,7 +5892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5557,16 +5928,16 @@
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B2">
         <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -5578,7 +5949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -5597,7 +5968,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>53</v>
@@ -5606,7 +5977,7 @@
         <v>54</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>55</v>
@@ -5623,10 +5994,10 @@
     </row>
     <row r="2" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -5635,7 +6006,7 @@
         <v>62</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G2" t="s">
         <v>58</v>
@@ -5646,10 +6017,10 @@
     </row>
     <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G3" t="s">
         <v>58</v>
@@ -5660,16 +6031,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -5683,10 +6054,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -5697,13 +6068,13 @@
     </row>
     <row r="6" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -5714,19 +6085,19 @@
     </row>
     <row r="7" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G7" t="s">
         <v>61</v>
@@ -5737,10 +6108,10 @@
     </row>
     <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G8" t="s">
         <v>61</v>
@@ -5751,10 +6122,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G9" t="s">
         <v>61</v>
@@ -5904,109 +6275,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="61.83203125" customWidth="1"/>
-    <col min="7" max="8" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="24" style="27" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/source_data/CDISC Pilot Study.xlsx
+++ b/source_data/CDISC Pilot Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A3D1FB-0FE8-E84C-A42F-01F1735708C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC99F7B2-78B5-E645-B9B7-969098745501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38760" yWindow="500" windowWidth="41580" windowHeight="23440" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="31720" yWindow="5760" windowWidth="37320" windowHeight="20560" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1119,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1245,8 +1245,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1255,20 +1267,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2553,113 +2552,113 @@
       <c r="A1" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -2750,16 +2749,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2802,7 +2801,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>168</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2819,7 +2818,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="48" t="s">
         <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2895,7 +2894,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="8" t="s">
         <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2906,7 +2905,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="8" t="s">
         <v>271</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2917,7 +2916,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2928,7 +2927,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="49" t="s">
         <v>307</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2947,8 +2946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2984,28 +2983,28 @@
       <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
       <c r="T1" s="1" t="s">
         <v>272</v>
       </c>
@@ -5896,7 +5895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
